--- a/pred_ohlcv/54_21/2019-10-27 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 EOS ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-41923.93836590002</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-48206.87646590002</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-48138.89236590001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-49824.88306590002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-7784.331165900016</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3719.640518880016</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2238.144061460016</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>431.327638539984</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-813.191261460016</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>19893.78943853998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-14266.61237907002</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-15759.33307907002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-17411.83237907002</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-18412.81777907002</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-38964.61994762003</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-39367.37704762004</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-36463.79294762004</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-38659.39514762004</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-39901.74204762004</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-37845.45354762003</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-38100.09744762004</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-38378.43614762004</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-37370.88443335004</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-38211.66243335004</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-39226.81833335003</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-39665.73143335003</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-39321.07733335003</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-39321.07733335003</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-37711.07033335004</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-37664.12113335003</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-38237.97683335003</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-38127.15323335003</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-38127.25323335003</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-42034.95443335003</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-42029.75923335003</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-42629.74623335003</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-44399.50843335003</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-44496.19163335003</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-44503.19163335003</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-44025.17113335003</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-44375.67113335003</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-44187.48493335003</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-42642.48493335003</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-42645.45583335003</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-42422.60583335003</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-42182.91553335003</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-43138.23933335004</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-43546.83433335004</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-45089.43453335004</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-206282.02194451</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-206284.94744451</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-205770.99314451</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-207771.00124451</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-205771.00124451</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-206915.90334451</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-210892.18414451</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-210033.22584451</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-212447.55644451</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-231069.38984451</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-233038.94794451</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-233038.94794451</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-232797.51304451</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-232797.51304451</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-235155.45274451</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-235352.88574451</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-231450.98254451</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-222731.26134451</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-223090.86614451</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-223090.86614451</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-223802.07884451</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-223550.14254451</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-222076.57084451</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-222193.86224451</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-222511.50404451</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-224678.24664451</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-224143.61014451</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-222938.14034451</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-223826.36054451</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-222826.36054451</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-222918.71694451</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-223095.17724451</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-222980.70744451</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-222980.70744451</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-222645.9901445101</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-222776.3463445101</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-221722.6782445101</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-221768.36254451</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-221800.10434451</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-221800.10434451</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-220766.69444451</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-220786.69444451</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-220753.51194451</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-221536.9497445101</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-220944.63574451</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-220706.67124451</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-220401.95184451</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-222810.0446445101</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-222766.81224451</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-222766.81224451</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-223205.51934451</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-223060.2848988301</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-223060.2848988301</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-225049.7885988301</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-224212.2011988301</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-224372.3593988301</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-224215.7034988301</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-224699.2604988301</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-224665.90119883</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-225390.4888685101</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-225390.4888685101</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-225646.4142685101</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-225646.4142685101</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-225644.0835685101</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-225050.8116685101</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-225050.8116685101</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-224575.8116685101</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-219882.5435685101</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-222076.4065685101</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-222166.6698685101</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-223130.3377685101</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-223130.3377685101</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-223305.1692685101</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-223312.5667685101</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-223686.1060685101</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-224596.1475685101</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-225831.3505685101</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-226326.8091685101</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-228847.1256685101</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-228950.7933685101</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-224901.5121685101</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-223231.4985685101</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-229308.3680685101</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-229779.1451685101</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-229749.6851685101</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-230019.0101685101</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-230800.7249685101</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-230800.7249685101</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-232867.1093685101</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-232765.0703685101</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-235257.1590685101</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-235315.9822685101</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-235298.0922685101</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-235298.0922685101</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-234446.1603685101</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-234409.7717685101</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-232414.1411685101</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-233468.2162685101</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-231815.4158685101</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-231814.1472685101</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-231691.3547685101</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-229550.4458685101</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-225618.5739685101</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-217469.10656851</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-217240.97656851</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-217220.81139167</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-215889.77856851</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-220509.84136851</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-214827.57416851</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-218238.43566851</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-218518.09526851</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-218518.09526851</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-218517.58966851</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-218517.58966851</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-218447.58966851</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-218626.84136851</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-218526.84136851</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-219389.32296851</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-218574.65356851</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-218836.03306851</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-218824.01556851</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-219262.16466851</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-219262.16466851</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-219513.29546851</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-219443.80476851</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-219831.35886851</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-217717.64446851</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-217717.64446851</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-217499.80626851</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-217499.80626851</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-217313.49546851</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-217022.43906851</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-215035.59046851</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-200942.18116851</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-200621.68356851</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-202883.04514122</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-201815.05564122</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-205053.30234122</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-207126.10924122</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-205317.34464122</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-202795.74824122</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-197833.89094122</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-198404.83394122</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-197465.89374122</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-240210.99264122</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-241459.4991412199</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-230256.7877412199</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-223877.84744122</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-224194.96254122</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-224717.6621412199</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-226969.6027112299</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-227886.0245112299</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-227729.3687112299</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-230798.3622112299</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-225948.43771123</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-225292.18981123</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-224151.56021123</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-223795.41431123</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-223795.41431123</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-223548.90211123</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-245374.1635790399</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-242664.6436524</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-244369.7570524</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-244369.7570524</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-244169.6570524</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-244189.382936</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-244189.2829359999</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-244288.8528359999</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-244401.5629359999</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-243416.896436</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-243034.887436</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-239824.154236</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-242135.021836</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-245171.004036</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-245575.638336</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-245575.080936</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-245670.352736</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-244380.512436</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-244747.669836</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-244470.774236</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-244196.804536</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-242961.397636</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-241417.38526355</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-242667.80446355</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-241633.27626355</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-241633.27626355</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-241617.39416355</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-242266.61156355</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-242040.54946355</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-242040.54946355</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-238861.47566355</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-238861.47566355</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-238861.47566355</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-238861.47566355</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-233605.56306355</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-231584.19186355</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-232174.96376355</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-231886.87746355</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-231886.87746355</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-239275.72336355</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-241458.79996355</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-244518.60016355</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-244043.32146355</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-243965.34016355</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-244288.66856355</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-244438.5236635499</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-244439.5236635499</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-243994.2004635499</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-240792.4560635499</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-240884.8059635499</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-243362.6203635499</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-245249.3065635499</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-247321.6522635499</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-248357.1804635499</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-247869.7625635499</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-243095.6311635499</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-243095.6311635499</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-243109.6105635499</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-240806.5732635499</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-241353.14026355</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-244523.2509635499</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-245583.7129635499</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-242017.6755635499</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-242174.4567635499</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-241479.38356355</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-241479.38356355</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-241479.38356355</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-241725.0947635499</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-241812.6411635499</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-241875.3234635499</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-241875.3234635499</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-241876.9776635499</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-245679.68186355</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-246833.9716635499</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-246231.77036355</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-247187.43626355</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-247187.43626355</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-247187.43626355</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-246428.89276355</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-240266.8134635499</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-241022.62496355</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-241022.62496355</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-241022.5249635499</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-241022.5249635499</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-239616.3084635499</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-239192.1262635499</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-239192.1262635499</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-239192.1262635499</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-238115.6159635499</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-237460.9265635499</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-237461.3841635499</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-237291.6650635499</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-236352.7828635499</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-233730.79046355</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-234252.0665635499</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-234101.8974635499</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-227867.2932635499</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-225549.5871635499</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-228623.2721436899</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-228765.50894369</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-229749.95284369</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-228533.82874369</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-227456.59174369</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-231382.71574369</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-223310.39854369</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-223814.82124369</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-225219.04784369</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-225251.10274369</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-225466.34274369</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-225658.96864369</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-225658.96864369</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-225658.96864369</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-225658.96864369</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-225658.96864369</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-225691.27594369</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-230170.50694369</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-230170.50694369</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-230170.50694369</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-230170.50694369</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-229770.72214369</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-229741.34104369</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-226648.24724369</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-226648.24724369</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-226291.36724369</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-226094.93024369</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-228289.28514369</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-227687.60454369</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-227792.92214369</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-228382.76334369</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-229427.51114369</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-229427.51114369</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-229327.55034369</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-229565.73534369</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-229566.31314369</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-231515.57494369</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-231515.57494369</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-229220.23964369</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-229004.66974369</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-229004.66974369</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-227468.74444636</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-227527.24444636</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-227499.74444636</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-227580.61184636</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-227580.61184636</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-227467.61084636</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-227990.03554636</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-228017.53554636</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-228017.53554636</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-227986.48304636</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-228021.60704636</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-227012.89954636</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-227636.9904463601</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-225836.36164636</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-227063.20534636</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-227760.0223463601</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-227760.0223463601</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-225906.7545463601</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-225906.7545463601</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-226728.77454636</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-225817.29844636</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-227363.58444636</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-227314.25154636</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-227309.42610996</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-227309.42610996</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-227093.91370996</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-227093.91370996</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-227095.12930996</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-228056.27680996</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-228056.17680996</v>
       </c>
       <c r="H881">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-230089.93110996</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-229235.12510996</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-229378.04390996</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-232969.97140996</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-232969.97140996</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-232777.48500996</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-232426.34060996</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-235868.80460996</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-236268.36440996</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-236303.13380996</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-237803.13380996</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-237564.92060996</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-237594.92050996</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-237355.20030996</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-237502.86920996</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-239118.5840099599</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-239139.59210996</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-239139.59210996</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-239075.5742099599</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-240861.42730996</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-241596.66710996</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-246852.86110996</v>
       </c>
       <c r="H935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-248727.55860996</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-251221.80440996</v>
       </c>
       <c r="H937">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-251541.16350996</v>
       </c>
       <c r="H938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-251520.43090996</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-251516.39890996</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-252238.03014713</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-251343.03714713</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-251343.03714713</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-251368.83907223</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-250512.51147223</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-250769.66141679</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-249006.76641679</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-249466.04721679</v>
       </c>
       <c r="H949">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-249386.23011679</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-247654.76250172</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-248247.63880172</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-248309.33950172</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-242528.79660172</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-242528.79660172</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-243492.73372033</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-244346.06962033</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-245152.73372033</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-245152.73372033</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-247962.38323282</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-247683.37583282</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-247583.27583282</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-247583.27583282</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-247583.27583282</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-241139.73323282</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-241724.13323282</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-239801.90653282</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-239435.22513282</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-239436.32513282</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-239362.01423282</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-239362.01423282</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-241456.58963282</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-240998.9778328199</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-242037.0630328199</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-239887.45783282</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-238243.88123282</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-231538.82913282</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-231538.82913282</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-235588.11033282</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-279121.5910606501</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-279121.5910606501</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-280009.2690606501</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-281118.5941606501</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-282042.6235606501</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-192328.8208465401</v>
       </c>
       <c r="H1124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-194320.3844465401</v>
       </c>
       <c r="H1125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-192147.2925465401</v>
       </c>
       <c r="H1126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-199087.3994465401</v>
       </c>
       <c r="H1127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-204462.2021465401</v>
       </c>
       <c r="H1128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-200546.9665465401</v>
       </c>
       <c r="H1129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-201743.6315465401</v>
       </c>
       <c r="H1130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-203586.5893465401</v>
       </c>
       <c r="H1131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-206120.8593465401</v>
       </c>
       <c r="H1132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-199531.3414465401</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-196767.1902465401</v>
       </c>
       <c r="H1134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-211092.7944339601</v>
       </c>
       <c r="H1135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-202725.3593339601</v>
       </c>
       <c r="H1136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-213620.7935339601</v>
       </c>
       <c r="H1137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-202080.7448339601</v>
       </c>
       <c r="H1138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-181825.8803339601</v>
       </c>
       <c r="H1139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-187492.1821824301</v>
       </c>
       <c r="H1140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-194316.9522824301</v>
       </c>
       <c r="H1141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-194200.5774824301</v>
       </c>
       <c r="H1142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-175835.3801914201</v>
       </c>
       <c r="H1143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-183758.2380914201</v>
       </c>
       <c r="H1144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-194544.1339087701</v>
       </c>
       <c r="H1145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-166249.0733087701</v>
       </c>
       <c r="H1146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-164061.2668087701</v>
       </c>
       <c r="H1147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-165981.9039087701</v>
       </c>
       <c r="H1148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-178367.7296087701</v>
       </c>
       <c r="H1149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-192611.2018087701</v>
       </c>
       <c r="H1150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 EOS ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-41923.93836590002</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-48138.89236590001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-49824.88306590002</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-7784.331165900016</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3719.640518880016</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2238.144061460016</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>431.327638539984</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-813.191261460016</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>19893.78943853998</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-14637.74107907002</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-15759.33307907002</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-17411.83237907002</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-18412.81777907002</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-38964.61994762003</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-39367.37704762004</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-36463.79294762004</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-38659.39514762004</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-39901.74204762004</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-37845.45354762003</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-38100.09744762004</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-38378.43614762004</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-37370.88443335004</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-38211.66243335004</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-39226.81833335003</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-39665.73143335003</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-39321.07733335003</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-39321.07733335003</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-37711.07033335004</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-37664.12113335003</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-38237.97683335003</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-38127.15323335003</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-38127.25323335003</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-42034.95443335003</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-42029.75923335003</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-42629.74623335003</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-44399.50843335003</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-44496.19163335003</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-44503.19163335003</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-44025.17113335003</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-44375.67113335003</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-44187.48493335003</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-42642.48493335003</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-42645.45583335003</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-42422.60583335003</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-42182.91553335003</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-43138.23933335004</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-43546.83433335004</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-45089.43453335004</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-206282.02194451</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-206284.94744451</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-205770.99314451</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-207771.00124451</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-205771.00124451</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-206915.90334451</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-210892.18414451</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-210033.22584451</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-212447.55644451</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-231069.38984451</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-233038.94794451</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-233038.94794451</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-232797.51304451</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-232797.51304451</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-235155.45274451</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-231450.98254451</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-227728.90834451</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-227628.90834451</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-224906.51754451</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-222731.26134451</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-223090.86614451</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-223090.86614451</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-223802.07884451</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-223550.14254451</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-222076.57084451</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-222193.86224451</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-222511.50404451</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-224678.24664451</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-224143.61014451</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-222938.14034451</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-223826.36054451</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-222826.36054451</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-222918.71694451</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-223095.17724451</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-222980.70744451</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-222980.70744451</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-222645.9901445101</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-222776.3463445101</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-221722.6782445101</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-221768.36254451</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-221800.10434451</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-221800.10434451</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-220766.69444451</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-220786.69444451</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-220753.51194451</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-221536.9497445101</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-220944.63574451</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-220706.67124451</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-220401.95184451</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-222810.0446445101</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-222766.81224451</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-222766.81224451</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-223205.51934451</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-223060.2848988301</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-223060.2848988301</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-225049.7885988301</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-224212.2011988301</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-224372.3593988301</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-224215.7034988301</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-224699.2604988301</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-224665.90119883</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-225390.4888685101</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-225390.4888685101</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-225646.4142685101</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-225646.4142685101</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-225644.0835685101</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-225430.8936685101</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-224859.2285685101</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-225050.8116685101</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-225050.8116685101</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-224575.8116685101</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-219882.5435685101</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-222076.4065685101</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-222166.6698685101</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-223130.3377685101</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-223130.3377685101</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-223305.1692685101</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-223312.5667685101</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-223686.1060685101</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-224596.1475685101</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-225831.3505685101</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-226326.8091685101</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-226418.7441685101</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-226418.7441685101</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-226418.7441685101</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-228870.3154685101</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-227974.8043685101</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-228115.8207685101</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-228847.1256685101</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-228847.1256685101</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-228950.7933685101</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-224901.5121685101</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-225905.1090685101</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-223231.4985685101</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-229308.3680685101</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-229656.0717685101</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-229779.1451685101</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-229749.6851685101</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-230019.0101685101</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-230800.7249685101</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-230800.7249685101</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-232867.1093685101</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-232765.0703685101</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-235257.1590685101</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-235315.9822685101</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-235298.0922685101</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-235298.0922685101</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-234446.1603685101</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-234409.7717685101</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-232414.1411685101</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-233468.2162685101</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-231598.4037685101</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-231815.4158685101</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-231814.1472685101</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-231691.3547685101</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-229550.4458685101</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-225618.5739685101</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-217469.10656851</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-217240.97656851</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-217220.81139167</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-215889.77856851</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-220509.84136851</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-214827.57416851</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-218238.43566851</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-218518.09526851</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-218518.09526851</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-218517.58966851</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-218517.58966851</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-218447.58966851</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-218626.84136851</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-218526.84136851</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-219389.32296851</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-218574.65356851</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-218836.03306851</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-218824.01556851</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-219262.16466851</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-219262.16466851</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-219513.29546851</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-219443.80476851</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-219831.35886851</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-217717.64446851</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-217717.64446851</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-217499.80626851</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-217499.80626851</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-217313.49546851</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-217022.43906851</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-215035.59046851</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-200942.18116851</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-200621.68356851</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-202883.04514122</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-201815.05564122</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-205053.30234122</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-207126.10924122</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-205317.34464122</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-202795.74824122</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-197833.89094122</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-198404.83394122</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-197465.89374122</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-240210.99264122</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-241459.4991412199</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-230256.7877412199</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-223877.84744122</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-224194.96254122</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-224717.6621412199</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-226969.6027112299</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-227886.0245112299</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-227729.3687112299</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-230798.3622112299</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-225948.43771123</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-225292.18981123</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-224151.56021123</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-223795.41431123</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-223795.41431123</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-223548.90211123</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-245374.1635790399</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-244369.7570524</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-242722.300436</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-242722.200436</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-243837.771536</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-247478.371136</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-241532.147636</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-241532.147636</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-240899.967936</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-242612.549436</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-242915.205736</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-242915.205736</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-243125.305736</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-244421.493036</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-243701.690736</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-244189.382936</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-244189.2829359999</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-244288.8528359999</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-244401.5629359999</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-243416.896436</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-243034.887436</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-240139.935436</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-240507.894236</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-240475.206336</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-240491.933836</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-239824.154236</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-242135.021836</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-245083.003436</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-245171.004036</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-245575.638336</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-245575.080936</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-245670.352736</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-244380.512436</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-244747.669836</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-244470.774236</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-244196.804536</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-242961.397636</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-241417.38526355</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-242667.80446355</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-241633.27626355</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-241633.27626355</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-241617.39416355</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-242266.61156355</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-242040.54946355</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-242040.54946355</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-238861.47566355</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-238861.47566355</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-238861.47566355</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-238861.47566355</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-233605.56306355</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-231584.19186355</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-232174.96376355</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-231886.87746355</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-231886.87746355</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-231595.60116355</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-231590.1511635499</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-233236.54046355</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-232964.0874635499</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-232429.6252635499</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-232458.69226355</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-232425.22006355</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-233290.40716355</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-234480.86916355</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-236493.16196355</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-238922.74166355</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-239275.72336355</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-241458.79996355</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-244518.60016355</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-244043.32146355</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-243965.34016355</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-244288.66856355</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-244438.5236635499</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-244439.5236635499</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-243994.2004635499</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-240792.4560635499</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-240884.8059635499</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-243362.6203635499</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-245249.3065635499</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-247321.6522635499</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-248357.1804635499</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-247869.7625635499</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-243095.6311635499</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-243095.6311635499</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-243109.6105635499</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-240806.5732635499</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-241353.14026355</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-244523.2509635499</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-245583.7129635499</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-242017.6755635499</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-242174.4567635499</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-241479.38356355</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-241479.38356355</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-241479.38356355</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-241725.0947635499</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-241812.6411635499</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-241875.3234635499</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-241875.3234635499</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-241876.9776635499</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-245679.68186355</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-246833.9716635499</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-246231.77036355</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-247187.43626355</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-247187.43626355</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-247187.43626355</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-246428.89276355</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-240266.8134635499</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-241022.62496355</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-241022.62496355</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-241022.5249635499</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-241022.5249635499</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-239616.3084635499</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-239192.1262635499</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-239192.1262635499</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-239192.1262635499</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-238115.6159635499</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-237460.9265635499</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-237461.3841635499</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-237291.6650635499</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-236352.7828635499</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-233730.79046355</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-234252.0665635499</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-234101.8974635499</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-227867.2932635499</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-225549.5871635499</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-228623.2721436899</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-228765.50894369</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-229749.95284369</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-228533.82874369</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-227456.59174369</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-231382.71574369</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-223310.39854369</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-223814.82124369</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-225219.04784369</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-225251.10274369</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-225466.34274369</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-225658.96864369</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-225658.96864369</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-225658.96864369</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-225658.96864369</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-225658.96864369</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-225691.27594369</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-230170.50694369</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-230170.50694369</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-230170.50694369</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-230170.50694369</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-229770.72214369</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-229741.34104369</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-226648.24724369</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-226648.24724369</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-226291.36724369</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-226094.93024369</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-228289.28514369</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-227687.60454369</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-227792.92214369</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-228382.76334369</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-229427.51114369</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-229427.51114369</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-229327.55034369</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-229565.73534369</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-229566.31314369</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-231515.57494369</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-231515.57494369</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-229220.23964369</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-229004.66974369</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-229004.66974369</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-228892.92474369</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-227468.74444636</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-227527.24444636</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-227499.74444636</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-227580.61184636</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-227580.61184636</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-227467.61084636</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-227990.03554636</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-228017.53554636</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-228017.53554636</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-227986.48304636</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-228021.60704636</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-227012.89954636</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-227636.9904463601</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-225836.36164636</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-227063.20534636</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-227760.0223463601</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-227760.0223463601</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-227301.7355463601</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-227301.7355463601</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-225906.7545463601</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-225906.7545463601</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-226728.77454636</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-225817.29844636</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-227363.58444636</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-227314.25154636</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-227309.42610996</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-227309.42610996</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-227093.91370996</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-227093.91370996</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-227095.12930996</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-228056.27680996</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-228056.17680996</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-230089.93110996</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-229235.12510996</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-229378.04390996</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-232969.97140996</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-232969.97140996</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-232777.48500996</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-232426.34060996</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-232429.60930996</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-231062.89930996</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-229989.85400996</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-228934.83780996</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-228417.34240996</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-230351.83640996</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-235868.80460996</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-236612.45840996</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-236019.25440996</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-236934.51650996</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-237073.02780996</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-234020.11500996</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-234020.50810996</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-234673.22360996</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-236935.84210996</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-236431.79390996</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-237194.08420996</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-236776.17620996</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-236776.17620996</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-236590.25930996</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-236158.57360996</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-236268.36440996</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-236303.13380996</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-237803.13380996</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-237564.92060996</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-237594.92050996</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-237355.20030996</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-237502.86920996</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-239118.5840099599</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-239139.59210996</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-239139.59210996</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-239075.5742099599</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-240861.42730996</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-241596.66710996</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-246852.86110996</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-248727.55860996</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-251221.80440996</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-251541.16350996</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-251520.43090996</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-251516.39890996</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-252238.03014713</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-251343.03714713</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-251343.03714713</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-251368.83907223</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-250512.51147223</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-250769.66141679</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-249006.76641679</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-249466.04721679</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-249466.04721679</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-249465.84721679</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-249386.23011679</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-249121.14311679</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-248171.08021679</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-248278.78421679</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-247734.01341679</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-247085.46070172</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-247101.41860172</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-247101.31860172</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-247101.31860172</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-247654.86250172</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-247654.86250172</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-247654.76250172</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-248247.63880172</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-248309.33950172</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-248309.33950172</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-246990.06370172</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-247140.61590172</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-246273.63710172</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-246518.67350172</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-246261.35430172</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-246261.35430172</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-246260.98410172</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-246406.17050172</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-242528.79660172</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-242528.79660172</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-242528.79660172</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-243492.73372033</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-244346.06962033</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-245152.73372033</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-245152.73372033</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-247962.38323282</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-247683.37583282</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-247583.27583282</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-247583.27583282</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-247583.27583282</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-241139.73323282</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-241724.13323282</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-239801.90653282</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-239435.22513282</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-239436.32513282</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-239362.01423282</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-239362.01423282</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-241456.58963282</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-240998.9778328199</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-242037.0630328199</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-239887.45783282</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-238243.88123282</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-231538.82913282</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-231538.82913282</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-235588.11033282</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-225715.70403282</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-224613.06693282</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-279121.5910606501</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-279121.5910606501</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-280009.2690606501</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-281118.5941606501</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-282042.6235606501</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-276753.2913606501</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-276753.2913606501</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-276593.3789606501</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-273806.6753606501</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-273119.6282606501</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-271053.9185606501</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-271053.9185606501</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-273716.2506606501</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-273716.2506606501</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-271829.3010606501</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-264803.0464606501</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-264618.1893606501</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-264687.0557606501</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-263339.1336606501</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-266374.02056065</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-267923.51546065</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-265149.19086065</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-264775.86806065</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-264775.61486065</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-257297.88126065</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-257539.89656065</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-254177.71376065</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-253374.56196065</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-253374.56196065</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-248730.94330927</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-248730.94330927</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-246657.66340927</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-243049.09060927</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-248005.54455299</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-246411.12925299</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-239014.58595299</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-239134.0629529901</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-239134.0629529901</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-239066.1651529901</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-242299.4801656</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-243851.7819656</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-243851.7819656</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-241716.7642656001</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-177539.9367465401</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-174407.8486465401</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-195602.2807465401</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-192328.8208465401</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-194320.3844465401</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-192147.2925465401</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-199087.3994465401</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-204462.2021465401</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-200546.9665465401</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-201743.6315465401</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-203586.5893465401</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-206120.8593465401</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-199531.3414465401</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-196767.1902465401</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-211092.7944339601</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-202725.3593339601</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-213620.7935339601</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-202080.7448339601</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-181825.8803339601</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-187492.1821824301</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-194316.9522824301</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-194200.5774824301</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-183758.2380914201</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-194544.1339087701</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-166249.0733087701</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-164061.2668087701</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-165981.9039087701</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-178367.7296087701</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
